--- a/tests/testthat/testdata_Quantiles.xlsx
+++ b/tests/testthat/testdata_Quantiles.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthsharedservice-my.sharepoint.com/personal/georgina_anderson_dhsc_gov_uk/Documents/Documents/Projects/R/PHEindicatormethods/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B04B79-B31F-49C8-9E44-6DD4D0C2071A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{62B04B79-B31F-49C8-9E44-6DD4D0C2071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643CDF32-6F95-44E0-B050-1F4FF6CC501F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Quantiles" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">testdata_Quantiles!$A$1:$R$1018</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2081,26 +2089,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B983" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1016" sqref="N1016"/>
+      <selection pane="bottomRight" activeCell="R212" sqref="R212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>395</v>
       </c>
@@ -2158,7 +2167,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>382</v>
       </c>
@@ -2214,7 +2223,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>382</v>
       </c>
@@ -2270,7 +2279,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>382</v>
       </c>
@@ -2326,7 +2335,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>382</v>
       </c>
@@ -2382,7 +2391,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>382</v>
       </c>
@@ -2438,7 +2447,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>382</v>
       </c>
@@ -2494,7 +2503,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>382</v>
       </c>
@@ -2550,7 +2559,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>382</v>
       </c>
@@ -2606,7 +2615,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>382</v>
       </c>
@@ -2662,7 +2671,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>382</v>
       </c>
@@ -2718,7 +2727,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>382</v>
       </c>
@@ -2774,7 +2783,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>382</v>
       </c>
@@ -2830,7 +2839,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>382</v>
       </c>
@@ -2886,7 +2895,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>382</v>
       </c>
@@ -2942,7 +2951,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>382</v>
       </c>
@@ -2998,7 +3007,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>382</v>
       </c>
@@ -3054,7 +3063,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>382</v>
       </c>
@@ -3110,7 +3119,7 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>382</v>
       </c>
@@ -3166,7 +3175,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>382</v>
       </c>
@@ -3222,7 +3231,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>382</v>
       </c>
@@ -3278,7 +3287,7 @@
       <c r="T21"/>
       <c r="U21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>382</v>
       </c>
@@ -3334,7 +3343,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>382</v>
       </c>
@@ -3390,7 +3399,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>382</v>
       </c>
@@ -3446,7 +3455,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>382</v>
       </c>
@@ -3502,7 +3511,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>382</v>
       </c>
@@ -3558,7 +3567,7 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>382</v>
       </c>
@@ -3614,7 +3623,7 @@
       <c r="T27"/>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>382</v>
       </c>
@@ -3670,7 +3679,7 @@
       <c r="T28"/>
       <c r="U28"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>382</v>
       </c>
@@ -3726,7 +3735,7 @@
       <c r="T29"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>382</v>
       </c>
@@ -3782,7 +3791,7 @@
       <c r="T30"/>
       <c r="U30"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>382</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="T31"/>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>382</v>
       </c>
@@ -3894,7 +3903,7 @@
       <c r="T32"/>
       <c r="U32"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>382</v>
       </c>
@@ -3950,7 +3959,7 @@
       <c r="T33"/>
       <c r="U33"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>382</v>
       </c>
@@ -4006,7 +4015,7 @@
       <c r="T34"/>
       <c r="U34"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>382</v>
       </c>
@@ -4062,7 +4071,7 @@
       <c r="T35"/>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>382</v>
       </c>
@@ -4118,7 +4127,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>382</v>
       </c>
@@ -4174,7 +4183,7 @@
       <c r="T37"/>
       <c r="U37"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>382</v>
       </c>
@@ -4230,7 +4239,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>382</v>
       </c>
@@ -4286,7 +4295,7 @@
       <c r="T39"/>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>382</v>
       </c>
@@ -4342,7 +4351,7 @@
       <c r="T40"/>
       <c r="U40"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>382</v>
       </c>
@@ -4398,7 +4407,7 @@
       <c r="T41"/>
       <c r="U41"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>382</v>
       </c>
@@ -4454,7 +4463,7 @@
       <c r="T42"/>
       <c r="U42"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>382</v>
       </c>
@@ -4510,7 +4519,7 @@
       <c r="T43"/>
       <c r="U43"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>382</v>
       </c>
@@ -4566,7 +4575,7 @@
       <c r="T44"/>
       <c r="U44"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>382</v>
       </c>
@@ -4622,7 +4631,7 @@
       <c r="T45"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>382</v>
       </c>
@@ -4678,7 +4687,7 @@
       <c r="T46"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>382</v>
       </c>
@@ -4734,7 +4743,7 @@
       <c r="T47"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>382</v>
       </c>
@@ -4790,7 +4799,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>382</v>
       </c>
@@ -4846,7 +4855,7 @@
       <c r="T49"/>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>382</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="T50"/>
       <c r="U50"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>382</v>
       </c>
@@ -4958,7 +4967,7 @@
       <c r="T51"/>
       <c r="U51"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>382</v>
       </c>
@@ -5008,13 +5017,11 @@
       <c r="Q52" s="4">
         <v>9</v>
       </c>
-      <c r="R52" s="4">
-        <v>9</v>
-      </c>
+      <c r="R52" s="4"/>
       <c r="T52"/>
       <c r="U52"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>382</v>
       </c>
@@ -5064,13 +5071,11 @@
       <c r="Q53" s="4">
         <v>9</v>
       </c>
-      <c r="R53" s="4">
-        <v>8</v>
-      </c>
+      <c r="R53" s="4"/>
       <c r="T53"/>
       <c r="U53"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>382</v>
       </c>
@@ -5120,13 +5125,11 @@
       <c r="Q54" s="4">
         <v>9</v>
       </c>
-      <c r="R54" s="4">
-        <v>7</v>
-      </c>
+      <c r="R54" s="4"/>
       <c r="T54"/>
       <c r="U54"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>382</v>
       </c>
@@ -5176,13 +5179,11 @@
       <c r="Q55" s="4">
         <v>9</v>
       </c>
-      <c r="R55" s="4">
-        <v>6</v>
-      </c>
+      <c r="R55" s="4"/>
       <c r="T55"/>
       <c r="U55"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>382</v>
       </c>
@@ -5232,13 +5233,11 @@
       <c r="Q56" s="4">
         <v>9</v>
       </c>
-      <c r="R56" s="4">
-        <v>5</v>
-      </c>
+      <c r="R56" s="4"/>
       <c r="T56"/>
       <c r="U56"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>382</v>
       </c>
@@ -5288,13 +5287,11 @@
       <c r="Q57" s="4">
         <v>9</v>
       </c>
-      <c r="R57" s="4">
-        <v>4</v>
-      </c>
+      <c r="R57" s="4"/>
       <c r="T57"/>
       <c r="U57"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>382</v>
       </c>
@@ -5344,13 +5341,11 @@
       <c r="Q58" s="4">
         <v>9</v>
       </c>
-      <c r="R58" s="4">
-        <v>3</v>
-      </c>
+      <c r="R58" s="4"/>
       <c r="T58"/>
       <c r="U58"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>382</v>
       </c>
@@ -5400,13 +5395,11 @@
       <c r="Q59" s="4">
         <v>9</v>
       </c>
-      <c r="R59" s="4">
-        <v>2</v>
-      </c>
+      <c r="R59" s="4"/>
       <c r="T59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>382</v>
       </c>
@@ -5456,13 +5449,11 @@
       <c r="Q60" s="4">
         <v>9</v>
       </c>
-      <c r="R60" s="4">
-        <v>1</v>
-      </c>
+      <c r="R60" s="4"/>
       <c r="T60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>382</v>
       </c>
@@ -5518,7 +5509,7 @@
       <c r="T61"/>
       <c r="U61"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>382</v>
       </c>
@@ -5574,7 +5565,7 @@
       <c r="T62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>382</v>
       </c>
@@ -5630,7 +5621,7 @@
       <c r="T63"/>
       <c r="U63"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>382</v>
       </c>
@@ -5686,7 +5677,7 @@
       <c r="T64"/>
       <c r="U64"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>382</v>
       </c>
@@ -5742,7 +5733,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>382</v>
       </c>
@@ -5798,7 +5789,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>382</v>
       </c>
@@ -5854,7 +5845,7 @@
       <c r="T67"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>382</v>
       </c>
@@ -5910,7 +5901,7 @@
       <c r="T68"/>
       <c r="U68"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>382</v>
       </c>
@@ -5966,7 +5957,7 @@
       <c r="T69"/>
       <c r="U69"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>382</v>
       </c>
@@ -6022,7 +6013,7 @@
       <c r="T70"/>
       <c r="U70"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>382</v>
       </c>
@@ -6078,7 +6069,7 @@
       <c r="T71"/>
       <c r="U71"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>382</v>
       </c>
@@ -6134,7 +6125,7 @@
       <c r="T72"/>
       <c r="U72"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>382</v>
       </c>
@@ -6190,7 +6181,7 @@
       <c r="T73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>382</v>
       </c>
@@ -6246,7 +6237,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>382</v>
       </c>
@@ -6302,7 +6293,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>382</v>
       </c>
@@ -6358,7 +6349,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>382</v>
       </c>
@@ -6414,7 +6405,7 @@
       <c r="T77"/>
       <c r="U77"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>382</v>
       </c>
@@ -6470,7 +6461,7 @@
       <c r="T78"/>
       <c r="U78"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>382</v>
       </c>
@@ -6526,7 +6517,7 @@
       <c r="T79"/>
       <c r="U79"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>382</v>
       </c>
@@ -6582,7 +6573,7 @@
       <c r="T80"/>
       <c r="U80"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>382</v>
       </c>
@@ -6638,7 +6629,7 @@
       <c r="T81"/>
       <c r="U81"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>382</v>
       </c>
@@ -6694,7 +6685,7 @@
       <c r="T82"/>
       <c r="U82"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>382</v>
       </c>
@@ -6750,7 +6741,7 @@
       <c r="T83"/>
       <c r="U83"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>382</v>
       </c>
@@ -6806,7 +6797,7 @@
       <c r="T84"/>
       <c r="U84"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>382</v>
       </c>
@@ -6862,7 +6853,7 @@
       <c r="T85"/>
       <c r="U85"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>382</v>
       </c>
@@ -6918,7 +6909,7 @@
       <c r="T86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>382</v>
       </c>
@@ -6974,7 +6965,7 @@
       <c r="T87"/>
       <c r="U87"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>382</v>
       </c>
@@ -7030,7 +7021,7 @@
       <c r="T88"/>
       <c r="U88"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>382</v>
       </c>
@@ -7086,7 +7077,7 @@
       <c r="T89"/>
       <c r="U89"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>382</v>
       </c>
@@ -7142,7 +7133,7 @@
       <c r="T90"/>
       <c r="U90"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>382</v>
       </c>
@@ -7198,7 +7189,7 @@
       <c r="T91"/>
       <c r="U91"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>382</v>
       </c>
@@ -7254,7 +7245,7 @@
       <c r="T92"/>
       <c r="U92"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>382</v>
       </c>
@@ -7310,7 +7301,7 @@
       <c r="T93"/>
       <c r="U93"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>382</v>
       </c>
@@ -7366,7 +7357,7 @@
       <c r="T94"/>
       <c r="U94"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>382</v>
       </c>
@@ -7422,7 +7413,7 @@
       <c r="T95"/>
       <c r="U95"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
@@ -7478,7 +7469,7 @@
       <c r="T96"/>
       <c r="U96"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>382</v>
       </c>
@@ -7534,7 +7525,7 @@
       <c r="T97"/>
       <c r="U97"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>382</v>
       </c>
@@ -7590,7 +7581,7 @@
       <c r="T98"/>
       <c r="U98"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>382</v>
       </c>
@@ -7646,7 +7637,7 @@
       <c r="T99"/>
       <c r="U99"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>382</v>
       </c>
@@ -7702,7 +7693,7 @@
       <c r="T100"/>
       <c r="U100"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>382</v>
       </c>
@@ -7758,7 +7749,7 @@
       <c r="T101"/>
       <c r="U101"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>382</v>
       </c>
@@ -7814,7 +7805,7 @@
       <c r="T102"/>
       <c r="U102"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>382</v>
       </c>
@@ -7870,7 +7861,7 @@
       <c r="T103"/>
       <c r="U103"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>382</v>
       </c>
@@ -7926,7 +7917,7 @@
       <c r="T104"/>
       <c r="U104"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>382</v>
       </c>
@@ -7982,7 +7973,7 @@
       <c r="T105"/>
       <c r="U105"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>382</v>
       </c>
@@ -8038,7 +8029,7 @@
       <c r="T106"/>
       <c r="U106"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>382</v>
       </c>
@@ -8094,7 +8085,7 @@
       <c r="T107"/>
       <c r="U107"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>382</v>
       </c>
@@ -8150,7 +8141,7 @@
       <c r="T108"/>
       <c r="U108"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>382</v>
       </c>
@@ -8206,7 +8197,7 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>382</v>
       </c>
@@ -8262,7 +8253,7 @@
       <c r="T110"/>
       <c r="U110"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>382</v>
       </c>
@@ -8318,7 +8309,7 @@
       <c r="T111"/>
       <c r="U111"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>382</v>
       </c>
@@ -8374,7 +8365,7 @@
       <c r="T112"/>
       <c r="U112"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>382</v>
       </c>
@@ -8430,7 +8421,7 @@
       <c r="T113"/>
       <c r="U113"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>382</v>
       </c>
@@ -8486,7 +8477,7 @@
       <c r="T114"/>
       <c r="U114"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>382</v>
       </c>
@@ -8542,7 +8533,7 @@
       <c r="T115"/>
       <c r="U115"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>382</v>
       </c>
@@ -8598,7 +8589,7 @@
       <c r="T116"/>
       <c r="U116"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>382</v>
       </c>
@@ -8654,7 +8645,7 @@
       <c r="T117"/>
       <c r="U117"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>382</v>
       </c>
@@ -8702,7 +8693,7 @@
       <c r="T118"/>
       <c r="U118"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>382</v>
       </c>
@@ -8758,7 +8749,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>382</v>
       </c>
@@ -8814,7 +8805,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>382</v>
       </c>
@@ -8870,7 +8861,7 @@
       <c r="T121"/>
       <c r="U121"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>382</v>
       </c>
@@ -8926,7 +8917,7 @@
       <c r="T122"/>
       <c r="U122"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>382</v>
       </c>
@@ -8982,7 +8973,7 @@
       <c r="T123"/>
       <c r="U123"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>382</v>
       </c>
@@ -9038,7 +9029,7 @@
       <c r="T124"/>
       <c r="U124"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>382</v>
       </c>
@@ -9094,7 +9085,7 @@
       <c r="T125"/>
       <c r="U125"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>382</v>
       </c>
@@ -9150,7 +9141,7 @@
       <c r="T126"/>
       <c r="U126"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>382</v>
       </c>
@@ -9206,7 +9197,7 @@
       <c r="T127"/>
       <c r="U127"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>382</v>
       </c>
@@ -9262,7 +9253,7 @@
       <c r="T128"/>
       <c r="U128"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>382</v>
       </c>
@@ -9318,7 +9309,7 @@
       <c r="T129"/>
       <c r="U129"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>382</v>
       </c>
@@ -9374,7 +9365,7 @@
       <c r="T130"/>
       <c r="U130"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>382</v>
       </c>
@@ -9430,7 +9421,7 @@
       <c r="T131"/>
       <c r="U131"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>382</v>
       </c>
@@ -9486,7 +9477,7 @@
       <c r="T132"/>
       <c r="U132"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>382</v>
       </c>
@@ -9542,7 +9533,7 @@
       <c r="T133"/>
       <c r="U133"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>382</v>
       </c>
@@ -9598,7 +9589,7 @@
       <c r="T134"/>
       <c r="U134"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>382</v>
       </c>
@@ -9654,7 +9645,7 @@
       <c r="T135"/>
       <c r="U135"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>382</v>
       </c>
@@ -9710,7 +9701,7 @@
       <c r="T136"/>
       <c r="U136"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>382</v>
       </c>
@@ -9766,7 +9757,7 @@
       <c r="T137"/>
       <c r="U137"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>382</v>
       </c>
@@ -9822,7 +9813,7 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>382</v>
       </c>
@@ -9878,7 +9869,7 @@
       <c r="T139"/>
       <c r="U139"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>382</v>
       </c>
@@ -9934,7 +9925,7 @@
       <c r="T140"/>
       <c r="U140"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>382</v>
       </c>
@@ -9990,7 +9981,7 @@
       <c r="T141"/>
       <c r="U141"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>382</v>
       </c>
@@ -10046,7 +10037,7 @@
       <c r="T142"/>
       <c r="U142"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>382</v>
       </c>
@@ -10102,7 +10093,7 @@
       <c r="T143"/>
       <c r="U143"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>382</v>
       </c>
@@ -10158,7 +10149,7 @@
       <c r="T144"/>
       <c r="U144"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>382</v>
       </c>
@@ -10214,7 +10205,7 @@
       <c r="T145"/>
       <c r="U145"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>382</v>
       </c>
@@ -10270,7 +10261,7 @@
       <c r="T146"/>
       <c r="U146"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>382</v>
       </c>
@@ -10326,7 +10317,7 @@
       <c r="T147"/>
       <c r="U147"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>382</v>
       </c>
@@ -10382,7 +10373,7 @@
       <c r="T148"/>
       <c r="U148"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>382</v>
       </c>
@@ -10438,7 +10429,7 @@
       <c r="T149"/>
       <c r="U149"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>382</v>
       </c>
@@ -10494,7 +10485,7 @@
       <c r="T150"/>
       <c r="U150"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>382</v>
       </c>
@@ -10550,7 +10541,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>382</v>
       </c>
@@ -10606,7 +10597,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>382</v>
       </c>
@@ -10653,7 +10644,7 @@
       <c r="T153"/>
       <c r="U153"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>383</v>
       </c>
@@ -10712,7 +10703,7 @@
       <c r="T154"/>
       <c r="U154"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>383</v>
       </c>
@@ -10771,7 +10762,7 @@
       <c r="T155"/>
       <c r="U155"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>383</v>
       </c>
@@ -10830,7 +10821,7 @@
       <c r="T156"/>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>383</v>
       </c>
@@ -10889,7 +10880,7 @@
       <c r="T157"/>
       <c r="U157"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>383</v>
       </c>
@@ -10948,7 +10939,7 @@
       <c r="T158"/>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>383</v>
       </c>
@@ -11007,7 +10998,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>383</v>
       </c>
@@ -11066,7 +11057,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>383</v>
       </c>
@@ -11125,7 +11116,7 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>383</v>
       </c>
@@ -11184,7 +11175,7 @@
       <c r="T162"/>
       <c r="U162"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>383</v>
       </c>
@@ -11243,7 +11234,7 @@
       <c r="T163"/>
       <c r="U163"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>383</v>
       </c>
@@ -11302,7 +11293,7 @@
       <c r="T164"/>
       <c r="U164"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>383</v>
       </c>
@@ -11361,7 +11352,7 @@
       <c r="T165"/>
       <c r="U165"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>383</v>
       </c>
@@ -11420,7 +11411,7 @@
       <c r="T166"/>
       <c r="U166"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>383</v>
       </c>
@@ -11479,7 +11470,7 @@
       <c r="T167"/>
       <c r="U167"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>383</v>
       </c>
@@ -11538,7 +11529,7 @@
       <c r="T168"/>
       <c r="U168"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>383</v>
       </c>
@@ -11597,7 +11588,7 @@
       <c r="T169"/>
       <c r="U169"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>383</v>
       </c>
@@ -11656,7 +11647,7 @@
       <c r="T170"/>
       <c r="U170"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>383</v>
       </c>
@@ -11715,7 +11706,7 @@
       <c r="T171"/>
       <c r="U171"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>383</v>
       </c>
@@ -11774,7 +11765,7 @@
       <c r="T172"/>
       <c r="U172"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>383</v>
       </c>
@@ -11833,7 +11824,7 @@
       <c r="T173"/>
       <c r="U173"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>383</v>
       </c>
@@ -11892,7 +11883,7 @@
       <c r="T174"/>
       <c r="U174"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>383</v>
       </c>
@@ -11951,7 +11942,7 @@
       <c r="T175"/>
       <c r="U175"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>383</v>
       </c>
@@ -12010,7 +12001,7 @@
       <c r="T176"/>
       <c r="U176"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>383</v>
       </c>
@@ -12069,7 +12060,7 @@
       <c r="T177"/>
       <c r="U177"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>383</v>
       </c>
@@ -12128,7 +12119,7 @@
       <c r="T178"/>
       <c r="U178"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>383</v>
       </c>
@@ -12187,7 +12178,7 @@
       <c r="T179"/>
       <c r="U179"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>383</v>
       </c>
@@ -12246,7 +12237,7 @@
       <c r="T180"/>
       <c r="U180"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>383</v>
       </c>
@@ -12305,7 +12296,7 @@
       <c r="T181"/>
       <c r="U181"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>383</v>
       </c>
@@ -12364,7 +12355,7 @@
       <c r="T182"/>
       <c r="U182"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>383</v>
       </c>
@@ -12423,7 +12414,7 @@
       <c r="T183"/>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>383</v>
       </c>
@@ -12482,7 +12473,7 @@
       <c r="T184"/>
       <c r="U184"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>383</v>
       </c>
@@ -12541,7 +12532,7 @@
       <c r="T185"/>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>383</v>
       </c>
@@ -12600,7 +12591,7 @@
       <c r="T186"/>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>383</v>
       </c>
@@ -12659,7 +12650,7 @@
       <c r="T187"/>
       <c r="U187"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>383</v>
       </c>
@@ -12718,7 +12709,7 @@
       <c r="T188"/>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>383</v>
       </c>
@@ -12777,7 +12768,7 @@
       <c r="T189"/>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>383</v>
       </c>
@@ -12836,7 +12827,7 @@
       <c r="T190"/>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>383</v>
       </c>
@@ -12895,7 +12886,7 @@
       <c r="T191"/>
       <c r="U191"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>383</v>
       </c>
@@ -12954,7 +12945,7 @@
       <c r="T192"/>
       <c r="U192"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>383</v>
       </c>
@@ -13013,7 +13004,7 @@
       <c r="T193"/>
       <c r="U193"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>383</v>
       </c>
@@ -13072,7 +13063,7 @@
       <c r="T194"/>
       <c r="U194"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>383</v>
       </c>
@@ -13131,7 +13122,7 @@
       <c r="T195"/>
       <c r="U195"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>383</v>
       </c>
@@ -13190,7 +13181,7 @@
       <c r="T196"/>
       <c r="U196"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>383</v>
       </c>
@@ -13249,7 +13240,7 @@
       <c r="T197"/>
       <c r="U197"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>383</v>
       </c>
@@ -13308,7 +13299,7 @@
       <c r="T198"/>
       <c r="U198"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>383</v>
       </c>
@@ -13367,7 +13358,7 @@
       <c r="T199"/>
       <c r="U199"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>383</v>
       </c>
@@ -13426,7 +13417,7 @@
       <c r="T200"/>
       <c r="U200"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>383</v>
       </c>
@@ -13485,7 +13476,7 @@
       <c r="T201"/>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>383</v>
       </c>
@@ -13544,7 +13535,7 @@
       <c r="T202"/>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>383</v>
       </c>
@@ -13603,7 +13594,7 @@
       <c r="T203"/>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>383</v>
       </c>
@@ -13655,14 +13646,12 @@
       <c r="Q204" s="4">
         <v>9</v>
       </c>
-      <c r="R204" s="4">
-        <v>1</v>
-      </c>
+      <c r="R204" s="4"/>
       <c r="S204"/>
       <c r="T204"/>
       <c r="U204"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>383</v>
       </c>
@@ -13714,14 +13703,12 @@
       <c r="Q205" s="4">
         <v>9</v>
       </c>
-      <c r="R205" s="4">
-        <v>2</v>
-      </c>
+      <c r="R205" s="4"/>
       <c r="S205"/>
       <c r="T205"/>
       <c r="U205"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>383</v>
       </c>
@@ -13773,14 +13760,12 @@
       <c r="Q206" s="4">
         <v>9</v>
       </c>
-      <c r="R206" s="4">
-        <v>3</v>
-      </c>
+      <c r="R206" s="4"/>
       <c r="S206"/>
       <c r="T206"/>
       <c r="U206"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>383</v>
       </c>
@@ -13832,14 +13817,12 @@
       <c r="Q207" s="4">
         <v>9</v>
       </c>
-      <c r="R207" s="4">
-        <v>4</v>
-      </c>
+      <c r="R207" s="4"/>
       <c r="S207"/>
       <c r="T207"/>
       <c r="U207"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>383</v>
       </c>
@@ -13891,14 +13874,12 @@
       <c r="Q208" s="4">
         <v>9</v>
       </c>
-      <c r="R208" s="4">
-        <v>5</v>
-      </c>
+      <c r="R208" s="4"/>
       <c r="S208"/>
       <c r="T208"/>
       <c r="U208"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>383</v>
       </c>
@@ -13950,14 +13931,12 @@
       <c r="Q209" s="4">
         <v>9</v>
       </c>
-      <c r="R209" s="4">
-        <v>6</v>
-      </c>
+      <c r="R209" s="4"/>
       <c r="S209"/>
       <c r="T209"/>
       <c r="U209"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>383</v>
       </c>
@@ -14009,14 +13988,12 @@
       <c r="Q210" s="4">
         <v>9</v>
       </c>
-      <c r="R210" s="4">
-        <v>7</v>
-      </c>
+      <c r="R210" s="4"/>
       <c r="S210"/>
       <c r="T210"/>
       <c r="U210"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>383</v>
       </c>
@@ -14068,14 +14045,12 @@
       <c r="Q211" s="4">
         <v>9</v>
       </c>
-      <c r="R211" s="4">
-        <v>8</v>
-      </c>
+      <c r="R211" s="4"/>
       <c r="S211"/>
       <c r="T211"/>
       <c r="U211"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>383</v>
       </c>
@@ -14127,14 +14102,12 @@
       <c r="Q212" s="4">
         <v>9</v>
       </c>
-      <c r="R212" s="4">
-        <v>9</v>
-      </c>
+      <c r="R212" s="4"/>
       <c r="S212"/>
       <c r="T212"/>
       <c r="U212"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>383</v>
       </c>
@@ -14193,7 +14166,7 @@
       <c r="T213"/>
       <c r="U213"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>383</v>
       </c>
@@ -14252,7 +14225,7 @@
       <c r="T214"/>
       <c r="U214"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>383</v>
       </c>
@@ -14311,7 +14284,7 @@
       <c r="T215"/>
       <c r="U215"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>383</v>
       </c>
@@ -14370,7 +14343,7 @@
       <c r="T216"/>
       <c r="U216"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>383</v>
       </c>
@@ -14429,7 +14402,7 @@
       <c r="T217"/>
       <c r="U217"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>383</v>
       </c>
@@ -14488,7 +14461,7 @@
       <c r="T218"/>
       <c r="U218"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>383</v>
       </c>
@@ -14547,7 +14520,7 @@
       <c r="T219"/>
       <c r="U219"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>383</v>
       </c>
@@ -14606,7 +14579,7 @@
       <c r="T220"/>
       <c r="U220"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>383</v>
       </c>
@@ -14665,7 +14638,7 @@
       <c r="T221"/>
       <c r="U221"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>383</v>
       </c>
@@ -14724,7 +14697,7 @@
       <c r="T222"/>
       <c r="U222"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>383</v>
       </c>
@@ -14783,7 +14756,7 @@
       <c r="T223"/>
       <c r="U223"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>383</v>
       </c>
@@ -14842,7 +14815,7 @@
       <c r="T224"/>
       <c r="U224"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>383</v>
       </c>
@@ -14901,7 +14874,7 @@
       <c r="T225"/>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>383</v>
       </c>
@@ -14960,7 +14933,7 @@
       <c r="T226"/>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>383</v>
       </c>
@@ -15019,7 +14992,7 @@
       <c r="T227"/>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>383</v>
       </c>
@@ -15078,7 +15051,7 @@
       <c r="T228"/>
       <c r="U228"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>383</v>
       </c>
@@ -15137,7 +15110,7 @@
       <c r="T229"/>
       <c r="U229"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>383</v>
       </c>
@@ -15196,7 +15169,7 @@
       <c r="T230"/>
       <c r="U230"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>383</v>
       </c>
@@ -15255,7 +15228,7 @@
       <c r="T231"/>
       <c r="U231"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>383</v>
       </c>
@@ -15314,7 +15287,7 @@
       <c r="T232"/>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>383</v>
       </c>
@@ -15373,7 +15346,7 @@
       <c r="T233"/>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>383</v>
       </c>
@@ -15432,7 +15405,7 @@
       <c r="T234"/>
       <c r="U234"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>383</v>
       </c>
@@ -15491,7 +15464,7 @@
       <c r="T235"/>
       <c r="U235"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>383</v>
       </c>
@@ -15550,7 +15523,7 @@
       <c r="T236"/>
       <c r="U236"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>383</v>
       </c>
@@ -15609,7 +15582,7 @@
       <c r="T237"/>
       <c r="U237"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>383</v>
       </c>
@@ -15668,7 +15641,7 @@
       <c r="T238"/>
       <c r="U238"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>383</v>
       </c>
@@ -15727,7 +15700,7 @@
       <c r="T239"/>
       <c r="U239"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>383</v>
       </c>
@@ -15786,7 +15759,7 @@
       <c r="T240"/>
       <c r="U240"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>383</v>
       </c>
@@ -15845,7 +15818,7 @@
       <c r="T241"/>
       <c r="U241"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>383</v>
       </c>
@@ -15904,7 +15877,7 @@
       <c r="T242"/>
       <c r="U242"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>383</v>
       </c>
@@ -15963,7 +15936,7 @@
       <c r="T243"/>
       <c r="U243"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>383</v>
       </c>
@@ -16022,7 +15995,7 @@
       <c r="T244"/>
       <c r="U244"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>383</v>
       </c>
@@ -16081,7 +16054,7 @@
       <c r="T245"/>
       <c r="U245"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>383</v>
       </c>
@@ -16140,7 +16113,7 @@
       <c r="T246"/>
       <c r="U246"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>383</v>
       </c>
@@ -16199,7 +16172,7 @@
       <c r="T247"/>
       <c r="U247"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>383</v>
       </c>
@@ -16258,7 +16231,7 @@
       <c r="T248"/>
       <c r="U248"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>383</v>
       </c>
@@ -16317,7 +16290,7 @@
       <c r="T249"/>
       <c r="U249"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>383</v>
       </c>
@@ -16376,7 +16349,7 @@
       <c r="T250"/>
       <c r="U250"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>383</v>
       </c>
@@ -16435,7 +16408,7 @@
       <c r="T251"/>
       <c r="U251"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>383</v>
       </c>
@@ -16494,7 +16467,7 @@
       <c r="T252"/>
       <c r="U252"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>383</v>
       </c>
@@ -16553,7 +16526,7 @@
       <c r="T253"/>
       <c r="U253"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>383</v>
       </c>
@@ -16612,7 +16585,7 @@
       <c r="T254"/>
       <c r="U254"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>383</v>
       </c>
@@ -16671,7 +16644,7 @@
       <c r="T255"/>
       <c r="U255"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>383</v>
       </c>
@@ -16730,7 +16703,7 @@
       <c r="T256"/>
       <c r="U256"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>383</v>
       </c>
@@ -16789,7 +16762,7 @@
       <c r="T257"/>
       <c r="U257"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>383</v>
       </c>
@@ -16848,7 +16821,7 @@
       <c r="T258"/>
       <c r="U258"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>383</v>
       </c>
@@ -16907,7 +16880,7 @@
       <c r="T259"/>
       <c r="U259"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>383</v>
       </c>
@@ -16966,7 +16939,7 @@
       <c r="T260"/>
       <c r="U260"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>383</v>
       </c>
@@ -17025,7 +16998,7 @@
       <c r="T261"/>
       <c r="U261"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>383</v>
       </c>
@@ -17084,7 +17057,7 @@
       <c r="T262"/>
       <c r="U262"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>383</v>
       </c>
@@ -17143,7 +17116,7 @@
       <c r="T263"/>
       <c r="U263"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>383</v>
       </c>
@@ -17202,7 +17175,7 @@
       <c r="T264"/>
       <c r="U264"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>383</v>
       </c>
@@ -17261,7 +17234,7 @@
       <c r="T265"/>
       <c r="U265"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>383</v>
       </c>
@@ -17320,7 +17293,7 @@
       <c r="T266"/>
       <c r="U266"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>383</v>
       </c>
@@ -17379,7 +17352,7 @@
       <c r="T267"/>
       <c r="U267"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>383</v>
       </c>
@@ -17438,7 +17411,7 @@
       <c r="T268"/>
       <c r="U268"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>383</v>
       </c>
@@ -17497,7 +17470,7 @@
       <c r="T269"/>
       <c r="U269"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>383</v>
       </c>
@@ -17544,7 +17517,7 @@
       <c r="T270"/>
       <c r="U270"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>383</v>
       </c>
@@ -17603,7 +17576,7 @@
       <c r="T271"/>
       <c r="U271"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>383</v>
       </c>
@@ -17662,7 +17635,7 @@
       <c r="T272"/>
       <c r="U272"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>383</v>
       </c>
@@ -17721,7 +17694,7 @@
       <c r="T273"/>
       <c r="U273"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>383</v>
       </c>
@@ -17780,7 +17753,7 @@
       <c r="T274"/>
       <c r="U274"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>383</v>
       </c>
@@ -17839,7 +17812,7 @@
       <c r="T275"/>
       <c r="U275"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>383</v>
       </c>
@@ -17898,7 +17871,7 @@
       <c r="T276"/>
       <c r="U276"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>383</v>
       </c>
@@ -17957,7 +17930,7 @@
       <c r="T277"/>
       <c r="U277"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>383</v>
       </c>
@@ -18016,7 +17989,7 @@
       <c r="T278"/>
       <c r="U278"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>383</v>
       </c>
@@ -18075,7 +18048,7 @@
       <c r="T279"/>
       <c r="U279"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>383</v>
       </c>
@@ -18134,7 +18107,7 @@
       <c r="T280"/>
       <c r="U280"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>383</v>
       </c>
@@ -18193,7 +18166,7 @@
       <c r="T281"/>
       <c r="U281"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>383</v>
       </c>
@@ -18252,7 +18225,7 @@
       <c r="T282"/>
       <c r="U282"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>383</v>
       </c>
@@ -18311,7 +18284,7 @@
       <c r="T283"/>
       <c r="U283"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>383</v>
       </c>
@@ -18370,7 +18343,7 @@
       <c r="T284"/>
       <c r="U284"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>383</v>
       </c>
@@ -18429,7 +18402,7 @@
       <c r="T285"/>
       <c r="U285"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>383</v>
       </c>
@@ -18488,7 +18461,7 @@
       <c r="T286"/>
       <c r="U286"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>383</v>
       </c>
@@ -18547,7 +18520,7 @@
       <c r="T287"/>
       <c r="U287"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>383</v>
       </c>
@@ -18606,7 +18579,7 @@
       <c r="T288"/>
       <c r="U288"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>383</v>
       </c>
@@ -18665,7 +18638,7 @@
       <c r="T289"/>
       <c r="U289"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>383</v>
       </c>
@@ -18724,7 +18697,7 @@
       <c r="T290"/>
       <c r="U290"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>383</v>
       </c>
@@ -18783,7 +18756,7 @@
       <c r="T291"/>
       <c r="U291"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>383</v>
       </c>
@@ -18842,7 +18815,7 @@
       <c r="T292"/>
       <c r="U292"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>383</v>
       </c>
@@ -18901,7 +18874,7 @@
       <c r="T293"/>
       <c r="U293"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>383</v>
       </c>
@@ -18960,7 +18933,7 @@
       <c r="T294"/>
       <c r="U294"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>383</v>
       </c>
@@ -19019,7 +18992,7 @@
       <c r="T295"/>
       <c r="U295"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>383</v>
       </c>
@@ -19078,7 +19051,7 @@
       <c r="T296"/>
       <c r="U296"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>383</v>
       </c>
@@ -19137,7 +19110,7 @@
       <c r="T297"/>
       <c r="U297"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>383</v>
       </c>
@@ -19196,7 +19169,7 @@
       <c r="T298"/>
       <c r="U298"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>383</v>
       </c>
@@ -19255,7 +19228,7 @@
       <c r="T299"/>
       <c r="U299"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>383</v>
       </c>
@@ -19314,7 +19287,7 @@
       <c r="T300"/>
       <c r="U300"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>383</v>
       </c>
@@ -19373,7 +19346,7 @@
       <c r="T301"/>
       <c r="U301"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>383</v>
       </c>
@@ -19432,7 +19405,7 @@
       <c r="T302"/>
       <c r="U302"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>383</v>
       </c>
@@ -19491,7 +19464,7 @@
       <c r="T303"/>
       <c r="U303"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>383</v>
       </c>
@@ -19550,7 +19523,7 @@
       <c r="T304"/>
       <c r="U304"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>383</v>
       </c>
@@ -19597,7 +19570,7 @@
       <c r="T305"/>
       <c r="U305"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>383</v>
       </c>
@@ -19653,7 +19626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>383</v>
       </c>
@@ -19709,7 +19682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>383</v>
       </c>
@@ -19765,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>383</v>
       </c>
@@ -19821,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>383</v>
       </c>
@@ -19877,7 +19850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>383</v>
       </c>
@@ -19933,7 +19906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>383</v>
       </c>
@@ -19989,7 +19962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>383</v>
       </c>
@@ -20045,7 +20018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>383</v>
       </c>
@@ -20101,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>383</v>
       </c>
@@ -20157,7 +20130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>383</v>
       </c>
@@ -20213,7 +20186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>383</v>
       </c>
@@ -20269,7 +20242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -20325,7 +20298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>383</v>
       </c>
@@ -20381,7 +20354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>383</v>
       </c>
@@ -20437,7 +20410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>383</v>
       </c>
@@ -20493,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>383</v>
       </c>
@@ -20549,7 +20522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>383</v>
       </c>
@@ -20605,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>383</v>
       </c>
@@ -20661,7 +20634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>383</v>
       </c>
@@ -20717,7 +20690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>383</v>
       </c>
@@ -20773,7 +20746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>383</v>
       </c>
@@ -20829,7 +20802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>383</v>
       </c>
@@ -20885,7 +20858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>383</v>
       </c>
@@ -20941,7 +20914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>383</v>
       </c>
@@ -20997,7 +20970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>383</v>
       </c>
@@ -21053,7 +21026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>383</v>
       </c>
@@ -21109,7 +21082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>383</v>
       </c>
@@ -21165,7 +21138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>383</v>
       </c>
@@ -21221,7 +21194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>383</v>
       </c>
@@ -21277,7 +21250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>383</v>
       </c>
@@ -21333,7 +21306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>383</v>
       </c>
@@ -21389,7 +21362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>383</v>
       </c>
@@ -21445,7 +21418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>383</v>
       </c>
@@ -21501,7 +21474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>383</v>
       </c>
@@ -21557,7 +21530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>383</v>
       </c>
@@ -21613,7 +21586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>383</v>
       </c>
@@ -21669,7 +21642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>383</v>
       </c>
@@ -21725,7 +21698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>383</v>
       </c>
@@ -21781,7 +21754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>383</v>
       </c>
@@ -21837,7 +21810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>383</v>
       </c>
@@ -21893,7 +21866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>383</v>
       </c>
@@ -21949,7 +21922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>383</v>
       </c>
@@ -22005,7 +21978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>383</v>
       </c>
@@ -22061,7 +22034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>383</v>
       </c>
@@ -22117,7 +22090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>383</v>
       </c>
@@ -22173,7 +22146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>383</v>
       </c>
@@ -22229,7 +22202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>383</v>
       </c>
@@ -22285,7 +22258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>383</v>
       </c>
@@ -22341,7 +22314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -22397,7 +22370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -22453,7 +22426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>383</v>
       </c>
@@ -22509,7 +22482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>383</v>
       </c>
@@ -22565,7 +22538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>383</v>
       </c>
@@ -22621,7 +22594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>383</v>
       </c>
@@ -22677,7 +22650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>383</v>
       </c>
@@ -22733,7 +22706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>383</v>
       </c>
@@ -22789,7 +22762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -22845,7 +22818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>383</v>
       </c>
@@ -22901,7 +22874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>383</v>
       </c>
@@ -22957,7 +22930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>383</v>
       </c>
@@ -23013,7 +22986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -23069,7 +23042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>383</v>
       </c>
@@ -23125,7 +23098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>383</v>
       </c>
@@ -23181,7 +23154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>383</v>
       </c>
@@ -23237,7 +23210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>383</v>
       </c>
@@ -23293,7 +23266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>383</v>
       </c>
@@ -23349,7 +23322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>383</v>
       </c>
@@ -23405,7 +23378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>383</v>
       </c>
@@ -23461,7 +23434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>383</v>
       </c>
@@ -23517,7 +23490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -23573,7 +23546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -23629,7 +23602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>383</v>
       </c>
@@ -23685,7 +23658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>383</v>
       </c>
@@ -23741,7 +23714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -23797,7 +23770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -23853,7 +23826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -23909,7 +23882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -23965,7 +23938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -24021,7 +23994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -24077,7 +24050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>383</v>
       </c>
@@ -24133,7 +24106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>383</v>
       </c>
@@ -24189,7 +24162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>383</v>
       </c>
@@ -24245,7 +24218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>383</v>
       </c>
@@ -24301,7 +24274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>383</v>
       </c>
@@ -24357,7 +24330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>383</v>
       </c>
@@ -24413,7 +24386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>383</v>
       </c>
@@ -24469,7 +24442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>383</v>
       </c>
@@ -24525,7 +24498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>383</v>
       </c>
@@ -24581,7 +24554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>383</v>
       </c>
@@ -24637,7 +24610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>383</v>
       </c>
@@ -24693,7 +24666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>383</v>
       </c>
@@ -24749,7 +24722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>383</v>
       </c>
@@ -24805,7 +24778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>383</v>
       </c>
@@ -24861,7 +24834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>383</v>
       </c>
@@ -24917,7 +24890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>383</v>
       </c>
@@ -24973,7 +24946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>383</v>
       </c>
@@ -25029,7 +25002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>383</v>
       </c>
@@ -25085,7 +25058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>383</v>
       </c>
@@ -25141,7 +25114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>383</v>
       </c>
@@ -25197,7 +25170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>383</v>
       </c>
@@ -25253,7 +25226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>383</v>
       </c>
@@ -25309,7 +25282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>383</v>
       </c>
@@ -25365,7 +25338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>383</v>
       </c>
@@ -25421,7 +25394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>383</v>
       </c>
@@ -25477,7 +25450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>383</v>
       </c>
@@ -25533,7 +25506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>383</v>
       </c>
@@ -25589,7 +25562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>383</v>
       </c>
@@ -25645,7 +25618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>383</v>
       </c>
@@ -25701,7 +25674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>383</v>
       </c>
@@ -25757,7 +25730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>383</v>
       </c>
@@ -25813,7 +25786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>383</v>
       </c>
@@ -25869,7 +25842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>383</v>
       </c>
@@ -25925,7 +25898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>383</v>
       </c>
@@ -25981,7 +25954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>383</v>
       </c>
@@ -26037,7 +26010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>383</v>
       </c>
@@ -26093,7 +26066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>383</v>
       </c>
@@ -26149,7 +26122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>383</v>
       </c>
@@ -26205,7 +26178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>383</v>
       </c>
@@ -26261,7 +26234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>383</v>
       </c>
@@ -26317,7 +26290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>383</v>
       </c>
@@ -26373,7 +26346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>383</v>
       </c>
@@ -26429,7 +26402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>383</v>
       </c>
@@ -26485,7 +26458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>383</v>
       </c>
@@ -26541,7 +26514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>383</v>
       </c>
@@ -26597,7 +26570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>383</v>
       </c>
@@ -26653,7 +26626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>383</v>
       </c>
@@ -26709,7 +26682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>383</v>
       </c>
@@ -26765,7 +26738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>383</v>
       </c>
@@ -26821,7 +26794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>383</v>
       </c>
@@ -26877,7 +26850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>383</v>
       </c>
@@ -26933,7 +26906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>383</v>
       </c>
@@ -26989,7 +26962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>383</v>
       </c>
@@ -27045,7 +27018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>383</v>
       </c>
@@ -27101,7 +27074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>383</v>
       </c>
@@ -27157,7 +27130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>383</v>
       </c>
@@ -27213,7 +27186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>383</v>
       </c>
@@ -27269,7 +27242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>383</v>
       </c>
@@ -27325,7 +27298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>383</v>
       </c>
@@ -27381,7 +27354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>383</v>
       </c>
@@ -27437,7 +27410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>383</v>
       </c>
@@ -27493,7 +27466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>383</v>
       </c>
@@ -27549,7 +27522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>383</v>
       </c>
@@ -27605,7 +27578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>383</v>
       </c>
@@ -27661,7 +27634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>383</v>
       </c>
@@ -27717,7 +27690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>383</v>
       </c>
@@ -27773,7 +27746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>383</v>
       </c>
@@ -27829,7 +27802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>383</v>
       </c>
@@ -27885,7 +27858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>383</v>
       </c>
@@ -27941,7 +27914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>383</v>
       </c>
@@ -27997,7 +27970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>383</v>
       </c>
@@ -28035,7 +28008,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>383</v>
       </c>
@@ -28073,7 +28046,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>384</v>
       </c>
@@ -28130,7 +28103,7 @@
       <c r="T458"/>
       <c r="U458"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>384</v>
       </c>
@@ -28187,7 +28160,7 @@
       <c r="T459"/>
       <c r="U459"/>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>384</v>
       </c>
@@ -28244,7 +28217,7 @@
       <c r="T460"/>
       <c r="U460"/>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>384</v>
       </c>
@@ -28301,7 +28274,7 @@
       <c r="T461"/>
       <c r="U461"/>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>384</v>
       </c>
@@ -28358,7 +28331,7 @@
       <c r="T462"/>
       <c r="U462"/>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>384</v>
       </c>
@@ -28415,7 +28388,7 @@
       <c r="T463"/>
       <c r="U463"/>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>384</v>
       </c>
@@ -28472,7 +28445,7 @@
       <c r="T464"/>
       <c r="U464"/>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>384</v>
       </c>
@@ -28529,7 +28502,7 @@
       <c r="T465"/>
       <c r="U465"/>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>384</v>
       </c>
@@ -28586,7 +28559,7 @@
       <c r="T466"/>
       <c r="U466"/>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>384</v>
       </c>
@@ -28643,7 +28616,7 @@
       <c r="T467"/>
       <c r="U467"/>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>384</v>
       </c>
@@ -28700,7 +28673,7 @@
       <c r="T468"/>
       <c r="U468"/>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>384</v>
       </c>
@@ -28757,7 +28730,7 @@
       <c r="T469"/>
       <c r="U469"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>384</v>
       </c>
@@ -28814,7 +28787,7 @@
       <c r="T470"/>
       <c r="U470"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>397</v>
       </c>
@@ -28869,7 +28842,7 @@
       <c r="T471"/>
       <c r="U471"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>397</v>
       </c>
@@ -28924,7 +28897,7 @@
       <c r="T472"/>
       <c r="U472"/>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>397</v>
       </c>
@@ -28979,7 +28952,7 @@
       <c r="T473"/>
       <c r="U473"/>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>397</v>
       </c>
@@ -29034,7 +29007,7 @@
       <c r="T474"/>
       <c r="U474"/>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>397</v>
       </c>
@@ -29089,7 +29062,7 @@
       <c r="T475"/>
       <c r="U475"/>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>397</v>
       </c>
@@ -29144,7 +29117,7 @@
       <c r="T476"/>
       <c r="U476"/>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>397</v>
       </c>
@@ -29199,7 +29172,7 @@
       <c r="T477"/>
       <c r="U477"/>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>397</v>
       </c>
@@ -29254,7 +29227,7 @@
       <c r="T478"/>
       <c r="U478"/>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>397</v>
       </c>
@@ -29309,7 +29282,7 @@
       <c r="T479"/>
       <c r="U479"/>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>397</v>
       </c>
@@ -29364,7 +29337,7 @@
       <c r="T480"/>
       <c r="U480"/>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>397</v>
       </c>
@@ -29419,7 +29392,7 @@
       <c r="T481"/>
       <c r="U481"/>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>397</v>
       </c>
@@ -29474,7 +29447,7 @@
       <c r="T482"/>
       <c r="U482"/>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>397</v>
       </c>
@@ -29529,7 +29502,7 @@
       <c r="T483"/>
       <c r="U483"/>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>397</v>
       </c>
@@ -29584,7 +29557,7 @@
       <c r="T484"/>
       <c r="U484"/>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>397</v>
       </c>
@@ -29639,7 +29612,7 @@
       <c r="T485"/>
       <c r="U485"/>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>397</v>
       </c>
@@ -29694,7 +29667,7 @@
       <c r="T486"/>
       <c r="U486"/>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>397</v>
       </c>
@@ -29749,7 +29722,7 @@
       <c r="T487"/>
       <c r="U487"/>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>397</v>
       </c>
@@ -29804,7 +29777,7 @@
       <c r="T488"/>
       <c r="U488"/>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>397</v>
       </c>
@@ -29859,7 +29832,7 @@
       <c r="T489"/>
       <c r="U489"/>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>397</v>
       </c>
@@ -29914,7 +29887,7 @@
       <c r="T490"/>
       <c r="U490"/>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>397</v>
       </c>
@@ -29969,7 +29942,7 @@
       <c r="T491"/>
       <c r="U491"/>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>397</v>
       </c>
@@ -30024,7 +29997,7 @@
       <c r="T492"/>
       <c r="U492"/>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>384</v>
       </c>
@@ -30080,7 +30053,7 @@
       <c r="T493"/>
       <c r="U493"/>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>384</v>
       </c>
@@ -30136,7 +30109,7 @@
       <c r="T494"/>
       <c r="U494"/>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>384</v>
       </c>
@@ -30192,7 +30165,7 @@
       <c r="T495"/>
       <c r="U495"/>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>384</v>
       </c>
@@ -30248,7 +30221,7 @@
       <c r="T496"/>
       <c r="U496"/>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>384</v>
       </c>
@@ -30304,7 +30277,7 @@
       <c r="T497"/>
       <c r="U497"/>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>384</v>
       </c>
@@ -30360,7 +30333,7 @@
       <c r="T498"/>
       <c r="U498"/>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>384</v>
       </c>
@@ -30416,7 +30389,7 @@
       <c r="T499"/>
       <c r="U499"/>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>384</v>
       </c>
@@ -30472,7 +30445,7 @@
       <c r="T500"/>
       <c r="U500"/>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>384</v>
       </c>
@@ -30528,7 +30501,7 @@
       <c r="T501"/>
       <c r="U501"/>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>384</v>
       </c>
@@ -30584,7 +30557,7 @@
       <c r="T502"/>
       <c r="U502"/>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>384</v>
       </c>
@@ -30640,7 +30613,7 @@
       <c r="T503"/>
       <c r="U503"/>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>384</v>
       </c>
@@ -30696,7 +30669,7 @@
       <c r="T504"/>
       <c r="U504"/>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>384</v>
       </c>
@@ -30752,7 +30725,7 @@
       <c r="T505"/>
       <c r="U505"/>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>384</v>
       </c>
@@ -30805,7 +30778,7 @@
       <c r="T506"/>
       <c r="U506"/>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>384</v>
       </c>
@@ -30858,7 +30831,7 @@
       <c r="T507"/>
       <c r="U507"/>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>384</v>
       </c>
@@ -30911,7 +30884,7 @@
       <c r="T508"/>
       <c r="U508"/>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>384</v>
       </c>
@@ -30964,7 +30937,7 @@
       <c r="T509"/>
       <c r="U509"/>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>384</v>
       </c>
@@ -31017,7 +30990,7 @@
       <c r="T510"/>
       <c r="U510"/>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>384</v>
       </c>
@@ -31070,7 +31043,7 @@
       <c r="T511"/>
       <c r="U511"/>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>384</v>
       </c>
@@ -31123,7 +31096,7 @@
       <c r="T512"/>
       <c r="U512"/>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>384</v>
       </c>
@@ -31176,7 +31149,7 @@
       <c r="T513"/>
       <c r="U513"/>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>384</v>
       </c>
@@ -31229,7 +31202,7 @@
       <c r="T514"/>
       <c r="U514"/>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>384</v>
       </c>
@@ -31282,7 +31255,7 @@
       <c r="T515"/>
       <c r="U515"/>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>384</v>
       </c>
@@ -31335,7 +31308,7 @@
       <c r="T516"/>
       <c r="U516"/>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>384</v>
       </c>
@@ -31388,7 +31361,7 @@
       <c r="T517"/>
       <c r="U517"/>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>384</v>
       </c>
@@ -31441,7 +31414,7 @@
       <c r="T518"/>
       <c r="U518"/>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>384</v>
       </c>
@@ -31494,7 +31467,7 @@
       <c r="T519"/>
       <c r="U519"/>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>384</v>
       </c>
@@ -31547,7 +31520,7 @@
       <c r="T520"/>
       <c r="U520"/>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>384</v>
       </c>
@@ -31600,7 +31573,7 @@
       <c r="T521"/>
       <c r="U521"/>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>384</v>
       </c>
@@ -31653,7 +31626,7 @@
       <c r="T522"/>
       <c r="U522"/>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>384</v>
       </c>
@@ -31706,7 +31679,7 @@
       <c r="T523"/>
       <c r="U523"/>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>384</v>
       </c>
@@ -31759,7 +31732,7 @@
       <c r="T524"/>
       <c r="U524"/>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>384</v>
       </c>
@@ -31812,7 +31785,7 @@
       <c r="T525"/>
       <c r="U525"/>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>384</v>
       </c>
@@ -31865,7 +31838,7 @@
       <c r="T526"/>
       <c r="U526"/>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>384</v>
       </c>
@@ -31918,7 +31891,7 @@
       <c r="T527"/>
       <c r="U527"/>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>384</v>
       </c>
@@ -31972,7 +31945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>382</v>
       </c>
@@ -32028,7 +32001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>384</v>
       </c>
@@ -32082,7 +32055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>382</v>
       </c>
@@ -32138,7 +32111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>384</v>
       </c>
@@ -32192,7 +32165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>384</v>
       </c>
@@ -32246,7 +32219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>382</v>
       </c>
@@ -32302,7 +32275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>382</v>
       </c>
@@ -32358,7 +32331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>382</v>
       </c>
@@ -32414,7 +32387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>382</v>
       </c>
@@ -32470,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>384</v>
       </c>
@@ -32524,7 +32497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>382</v>
       </c>
@@ -32580,7 +32553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>382</v>
       </c>
@@ -32636,7 +32609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>382</v>
       </c>
@@ -32692,7 +32665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>382</v>
       </c>
@@ -32748,7 +32721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>382</v>
       </c>
@@ -32804,7 +32777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>384</v>
       </c>
@@ -32858,7 +32831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>382</v>
       </c>
@@ -32914,7 +32887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>382</v>
       </c>
@@ -32970,7 +32943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>382</v>
       </c>
@@ -33026,7 +32999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>382</v>
       </c>
@@ -33082,7 +33055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>382</v>
       </c>
@@ -33138,7 +33111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>382</v>
       </c>
@@ -33194,7 +33167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>382</v>
       </c>
@@ -33250,7 +33223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>382</v>
       </c>
@@ -33306,7 +33279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>382</v>
       </c>
@@ -33362,7 +33335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>382</v>
       </c>
@@ -33418,7 +33391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>382</v>
       </c>
@@ -33474,7 +33447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>384</v>
       </c>
@@ -33528,7 +33501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>382</v>
       </c>
@@ -33584,7 +33557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>382</v>
       </c>
@@ -33640,7 +33613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>382</v>
       </c>
@@ -33696,7 +33669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>382</v>
       </c>
@@ -33752,7 +33725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>382</v>
       </c>
@@ -33808,7 +33781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>382</v>
       </c>
@@ -33864,7 +33837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>382</v>
       </c>
@@ -33920,7 +33893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>382</v>
       </c>
@@ -33976,7 +33949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>382</v>
       </c>
@@ -34032,7 +34005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>382</v>
       </c>
@@ -34088,7 +34061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>382</v>
       </c>
@@ -34144,7 +34117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>382</v>
       </c>
@@ -34200,7 +34173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>384</v>
       </c>
@@ -34254,7 +34227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>382</v>
       </c>
@@ -34310,7 +34283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>382</v>
       </c>
@@ -34366,7 +34339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>382</v>
       </c>
@@ -34422,7 +34395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>382</v>
       </c>
@@ -34478,7 +34451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>382</v>
       </c>
@@ -34534,7 +34507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>382</v>
       </c>
@@ -34590,7 +34563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>382</v>
       </c>
@@ -34646,7 +34619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
         <v>382</v>
       </c>
@@ -34702,7 +34675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
         <v>382</v>
       </c>
@@ -34758,7 +34731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>382</v>
       </c>
@@ -34814,7 +34787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>382</v>
       </c>
@@ -34870,7 +34843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>382</v>
       </c>
@@ -34926,7 +34899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>382</v>
       </c>
@@ -34982,7 +34955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
         <v>382</v>
       </c>
@@ -35038,7 +35011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
         <v>382</v>
       </c>
@@ -35094,7 +35067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>382</v>
       </c>
@@ -35150,7 +35123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
         <v>382</v>
       </c>
@@ -35206,7 +35179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
         <v>384</v>
       </c>
@@ -35260,7 +35233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
         <v>382</v>
       </c>
@@ -35316,7 +35289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>382</v>
       </c>
@@ -35372,7 +35345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>382</v>
       </c>
@@ -35428,7 +35401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="3" t="s">
         <v>382</v>
       </c>
@@ -35484,7 +35457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
         <v>382</v>
       </c>
@@ -35540,7 +35513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
         <v>382</v>
       </c>
@@ -35596,7 +35569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="3" t="s">
         <v>382</v>
       </c>
@@ -35652,7 +35625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3" t="s">
         <v>382</v>
       </c>
@@ -35708,7 +35681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>382</v>
       </c>
@@ -35764,7 +35737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>382</v>
       </c>
@@ -35820,7 +35793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
         <v>382</v>
       </c>
@@ -35876,7 +35849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>382</v>
       </c>
@@ -35932,7 +35905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
         <v>382</v>
       </c>
@@ -35988,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>382</v>
       </c>
@@ -36044,7 +36017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
         <v>382</v>
       </c>
@@ -36100,7 +36073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>382</v>
       </c>
@@ -36156,7 +36129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>382</v>
       </c>
@@ -36212,7 +36185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
         <v>382</v>
       </c>
@@ -36268,7 +36241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
         <v>382</v>
       </c>
@@ -36324,7 +36297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
         <v>382</v>
       </c>
@@ -36380,7 +36353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>382</v>
       </c>
@@ -36436,7 +36409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
         <v>382</v>
       </c>
@@ -36492,7 +36465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3" t="s">
         <v>382</v>
       </c>
@@ -36548,7 +36521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
         <v>382</v>
       </c>
@@ -36604,7 +36577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>382</v>
       </c>
@@ -36660,7 +36633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>384</v>
       </c>
@@ -36714,7 +36687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
         <v>382</v>
       </c>
@@ -36770,7 +36743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
         <v>382</v>
       </c>
@@ -36826,7 +36799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3" t="s">
         <v>382</v>
       </c>
@@ -36882,7 +36855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3" t="s">
         <v>382</v>
       </c>
@@ -36938,7 +36911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3" t="s">
         <v>382</v>
       </c>
@@ -36994,7 +36967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
         <v>382</v>
       </c>
@@ -37050,7 +37023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>382</v>
       </c>
@@ -37106,7 +37079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="3" t="s">
         <v>382</v>
       </c>
@@ -37162,7 +37135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>382</v>
       </c>
@@ -37218,7 +37191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
         <v>382</v>
       </c>
@@ -37274,7 +37247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>382</v>
       </c>
@@ -37330,7 +37303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
         <v>382</v>
       </c>
@@ -37386,7 +37359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>382</v>
       </c>
@@ -37442,7 +37415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>382</v>
       </c>
@@ -37498,7 +37471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
         <v>382</v>
       </c>
@@ -37554,7 +37527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>382</v>
       </c>
@@ -37610,7 +37583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="3" t="s">
         <v>382</v>
       </c>
@@ -37666,7 +37639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
         <v>382</v>
       </c>
@@ -37722,7 +37695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="3" t="s">
         <v>382</v>
       </c>
@@ -37778,7 +37751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
         <v>382</v>
       </c>
@@ -37834,7 +37807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>382</v>
       </c>
@@ -37890,7 +37863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="3" t="s">
         <v>382</v>
       </c>
@@ -37946,7 +37919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
         <v>382</v>
       </c>
@@ -38002,7 +37975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
         <v>382</v>
       </c>
@@ -38058,7 +38031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
         <v>382</v>
       </c>
@@ -38114,7 +38087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3" t="s">
         <v>382</v>
       </c>
@@ -38170,7 +38143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>382</v>
       </c>
@@ -38226,7 +38199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="3" t="s">
         <v>382</v>
       </c>
@@ -38282,7 +38255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>382</v>
       </c>
@@ -38338,7 +38311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
         <v>382</v>
       </c>
@@ -38394,7 +38367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>382</v>
       </c>
@@ -38450,7 +38423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
         <v>382</v>
       </c>
@@ -38506,7 +38479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>382</v>
       </c>
@@ -38562,7 +38535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="3" t="s">
         <v>382</v>
       </c>
@@ -38618,7 +38591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="3" t="s">
         <v>382</v>
       </c>
@@ -38674,7 +38647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
         <v>382</v>
       </c>
@@ -38730,7 +38703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
         <v>382</v>
       </c>
@@ -38786,7 +38759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
         <v>382</v>
       </c>
@@ -38842,7 +38815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
         <v>382</v>
       </c>
@@ -38898,7 +38871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>382</v>
       </c>
@@ -38954,7 +38927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
         <v>382</v>
       </c>
@@ -39010,7 +38983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
         <v>382</v>
       </c>
@@ -39066,7 +39039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
         <v>382</v>
       </c>
@@ -39122,7 +39095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="3" t="s">
         <v>382</v>
       </c>
@@ -39178,7 +39151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>384</v>
       </c>
@@ -39232,7 +39205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
         <v>384</v>
       </c>
@@ -39286,7 +39259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="3" t="s">
         <v>382</v>
       </c>
@@ -39342,7 +39315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="3" t="s">
         <v>382</v>
       </c>
@@ -39398,7 +39371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="3" t="s">
         <v>382</v>
       </c>
@@ -39454,7 +39427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="3" t="s">
         <v>382</v>
       </c>
@@ -39510,7 +39483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
         <v>382</v>
       </c>
@@ -39566,7 +39539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
         <v>382</v>
       </c>
@@ -39622,7 +39595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="3" t="s">
         <v>382</v>
       </c>
@@ -39678,7 +39651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="3" t="s">
         <v>382</v>
       </c>
@@ -39734,7 +39707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
         <v>382</v>
       </c>
@@ -39790,7 +39763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
         <v>382</v>
       </c>
@@ -39846,7 +39819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
         <v>382</v>
       </c>
@@ -39902,7 +39875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
         <v>382</v>
       </c>
@@ -39958,7 +39931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="3" t="s">
         <v>382</v>
       </c>
@@ -40014,7 +39987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="3" t="s">
         <v>382</v>
       </c>
@@ -40070,7 +40043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
         <v>382</v>
       </c>
@@ -40126,7 +40099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="3" t="s">
         <v>382</v>
       </c>
@@ -40182,7 +40155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="3" t="s">
         <v>382</v>
       </c>
@@ -40238,7 +40211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="3" t="s">
         <v>382</v>
       </c>
@@ -40294,7 +40267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="3" t="s">
         <v>384</v>
       </c>
@@ -40348,7 +40321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="3" t="s">
         <v>382</v>
       </c>
@@ -40404,7 +40377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="3" t="s">
         <v>382</v>
       </c>
@@ -40460,7 +40433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="3" t="s">
         <v>382</v>
       </c>
@@ -40516,7 +40489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="3" t="s">
         <v>382</v>
       </c>
@@ -40572,7 +40545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="3" t="s">
         <v>382</v>
       </c>
@@ -40628,7 +40601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="3" t="s">
         <v>382</v>
       </c>
@@ -40684,7 +40657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="3" t="s">
         <v>382</v>
       </c>
@@ -40740,7 +40713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="3" t="s">
         <v>382</v>
       </c>
@@ -40796,7 +40769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="3" t="s">
         <v>382</v>
       </c>
@@ -40852,7 +40825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="3" t="s">
         <v>382</v>
       </c>
@@ -40908,7 +40881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="3" t="s">
         <v>382</v>
       </c>
@@ -40964,7 +40937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="3" t="s">
         <v>382</v>
       </c>
@@ -41020,7 +40993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="3" t="s">
         <v>383</v>
       </c>
@@ -41076,7 +41049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="3" t="s">
         <v>383</v>
       </c>
@@ -41132,7 +41105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="3" t="s">
         <v>383</v>
       </c>
@@ -41188,7 +41161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="3" t="s">
         <v>383</v>
       </c>
@@ -41244,7 +41217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="3" t="s">
         <v>383</v>
       </c>
@@ -41300,7 +41273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="3" t="s">
         <v>383</v>
       </c>
@@ -41356,7 +41329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="3" t="s">
         <v>383</v>
       </c>
@@ -41412,7 +41385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="3" t="s">
         <v>383</v>
       </c>
@@ -41468,7 +41441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="3" t="s">
         <v>383</v>
       </c>
@@ -41524,7 +41497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="3" t="s">
         <v>383</v>
       </c>
@@ -41580,7 +41553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="3" t="s">
         <v>383</v>
       </c>
@@ -41636,7 +41609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="3" t="s">
         <v>383</v>
       </c>
@@ -41692,7 +41665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="3" t="s">
         <v>383</v>
       </c>
@@ -41748,7 +41721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="3" t="s">
         <v>383</v>
       </c>
@@ -41804,7 +41777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="3" t="s">
         <v>383</v>
       </c>
@@ -41860,7 +41833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="3" t="s">
         <v>383</v>
       </c>
@@ -41916,7 +41889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="3" t="s">
         <v>383</v>
       </c>
@@ -41972,7 +41945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="3" t="s">
         <v>383</v>
       </c>
@@ -42028,7 +42001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="3" t="s">
         <v>383</v>
       </c>
@@ -42084,7 +42057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="3" t="s">
         <v>383</v>
       </c>
@@ -42140,7 +42113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="3" t="s">
         <v>383</v>
       </c>
@@ -42196,7 +42169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="3" t="s">
         <v>383</v>
       </c>
@@ -42252,7 +42225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="3" t="s">
         <v>383</v>
       </c>
@@ -42308,7 +42281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="3" t="s">
         <v>383</v>
       </c>
@@ -42364,7 +42337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="3" t="s">
         <v>383</v>
       </c>
@@ -42420,7 +42393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="3" t="s">
         <v>383</v>
       </c>
@@ -42476,7 +42449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="3" t="s">
         <v>383</v>
       </c>
@@ -42532,7 +42505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="3" t="s">
         <v>383</v>
       </c>
@@ -42588,7 +42561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="3" t="s">
         <v>383</v>
       </c>
@@ -42644,7 +42617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="3" t="s">
         <v>383</v>
       </c>
@@ -42700,7 +42673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="3" t="s">
         <v>383</v>
       </c>
@@ -42756,7 +42729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="3" t="s">
         <v>383</v>
       </c>
@@ -42812,7 +42785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="3" t="s">
         <v>383</v>
       </c>
@@ -42868,7 +42841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="3" t="s">
         <v>383</v>
       </c>
@@ -42924,7 +42897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="3" t="s">
         <v>383</v>
       </c>
@@ -42980,7 +42953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="3" t="s">
         <v>383</v>
       </c>
@@ -43036,7 +43009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="3" t="s">
         <v>383</v>
       </c>
@@ -43092,7 +43065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="3" t="s">
         <v>383</v>
       </c>
@@ -43148,7 +43121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="3" t="s">
         <v>383</v>
       </c>
@@ -43204,7 +43177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="3" t="s">
         <v>383</v>
       </c>
@@ -43260,7 +43233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="3" t="s">
         <v>383</v>
       </c>
@@ -43316,7 +43289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="3" t="s">
         <v>383</v>
       </c>
@@ -43372,7 +43345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="3" t="s">
         <v>383</v>
       </c>
@@ -43428,7 +43401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="3" t="s">
         <v>383</v>
       </c>
@@ -43484,7 +43457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="3" t="s">
         <v>383</v>
       </c>
@@ -43540,7 +43513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="3" t="s">
         <v>383</v>
       </c>
@@ -43596,7 +43569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="3" t="s">
         <v>383</v>
       </c>
@@ -43652,7 +43625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="3" t="s">
         <v>383</v>
       </c>
@@ -43708,7 +43681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="3" t="s">
         <v>383</v>
       </c>
@@ -43764,7 +43737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="3" t="s">
         <v>383</v>
       </c>
@@ -43820,7 +43793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="3" t="s">
         <v>383</v>
       </c>
@@ -43876,7 +43849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="3" t="s">
         <v>383</v>
       </c>
@@ -43932,7 +43905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="3" t="s">
         <v>383</v>
       </c>
@@ -43988,7 +43961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="3" t="s">
         <v>383</v>
       </c>
@@ -44044,7 +44017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="3" t="s">
         <v>383</v>
       </c>
@@ -44100,7 +44073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="3" t="s">
         <v>383</v>
       </c>
@@ -44156,7 +44129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="3" t="s">
         <v>383</v>
       </c>
@@ -44212,7 +44185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="3" t="s">
         <v>383</v>
       </c>
@@ -44268,7 +44241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="3" t="s">
         <v>383</v>
       </c>
@@ -44324,7 +44297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="3" t="s">
         <v>383</v>
       </c>
@@ -44380,7 +44353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="3" t="s">
         <v>383</v>
       </c>
@@ -44436,7 +44409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="3" t="s">
         <v>383</v>
       </c>
@@ -44492,7 +44465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="3" t="s">
         <v>383</v>
       </c>
@@ -44548,7 +44521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="3" t="s">
         <v>383</v>
       </c>
@@ -44604,7 +44577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="3" t="s">
         <v>383</v>
       </c>
@@ -44660,7 +44633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="3" t="s">
         <v>383</v>
       </c>
@@ -44716,7 +44689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="3" t="s">
         <v>383</v>
       </c>
@@ -44772,7 +44745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="3" t="s">
         <v>383</v>
       </c>
@@ -44828,7 +44801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="3" t="s">
         <v>383</v>
       </c>
@@ -44884,7 +44857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="3" t="s">
         <v>383</v>
       </c>
@@ -44940,7 +44913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="3" t="s">
         <v>383</v>
       </c>
@@ -44996,7 +44969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="3" t="s">
         <v>383</v>
       </c>
@@ -45052,7 +45025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="3" t="s">
         <v>383</v>
       </c>
@@ -45108,7 +45081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="3" t="s">
         <v>383</v>
       </c>
@@ -45164,7 +45137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="3" t="s">
         <v>383</v>
       </c>
@@ -45220,7 +45193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="3" t="s">
         <v>383</v>
       </c>
@@ -45276,7 +45249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="3" t="s">
         <v>383</v>
       </c>
@@ -45332,7 +45305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="3" t="s">
         <v>383</v>
       </c>
@@ -45388,7 +45361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="3" t="s">
         <v>383</v>
       </c>
@@ -45444,7 +45417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="3" t="s">
         <v>383</v>
       </c>
@@ -45500,7 +45473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="3" t="s">
         <v>383</v>
       </c>
@@ -45556,7 +45529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="3" t="s">
         <v>383</v>
       </c>
@@ -45612,7 +45585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="3" t="s">
         <v>383</v>
       </c>
@@ -45668,7 +45641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="3" t="s">
         <v>383</v>
       </c>
@@ -45724,7 +45697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="3" t="s">
         <v>383</v>
       </c>
@@ -45780,7 +45753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="3" t="s">
         <v>383</v>
       </c>
@@ -45836,7 +45809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="3" t="s">
         <v>383</v>
       </c>
@@ -45892,7 +45865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="3" t="s">
         <v>383</v>
       </c>
@@ -45948,7 +45921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="3" t="s">
         <v>383</v>
       </c>
@@ -46004,7 +45977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="3" t="s">
         <v>383</v>
       </c>
@@ -46060,7 +46033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="3" t="s">
         <v>383</v>
       </c>
@@ -46116,7 +46089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="3" t="s">
         <v>383</v>
       </c>
@@ -46172,7 +46145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="3" t="s">
         <v>383</v>
       </c>
@@ -46228,7 +46201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="3" t="s">
         <v>383</v>
       </c>
@@ -46284,7 +46257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="3" t="s">
         <v>383</v>
       </c>
@@ -46340,7 +46313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="3" t="s">
         <v>383</v>
       </c>
@@ -46396,7 +46369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="3" t="s">
         <v>383</v>
       </c>
@@ -46452,7 +46425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="3" t="s">
         <v>383</v>
       </c>
@@ -46508,7 +46481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="3" t="s">
         <v>383</v>
       </c>
@@ -46564,7 +46537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="3" t="s">
         <v>383</v>
       </c>
@@ -46620,7 +46593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="3" t="s">
         <v>383</v>
       </c>
@@ -46676,7 +46649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="3" t="s">
         <v>383</v>
       </c>
@@ -46732,7 +46705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="3" t="s">
         <v>383</v>
       </c>
@@ -46788,7 +46761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="3" t="s">
         <v>383</v>
       </c>
@@ -46844,7 +46817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="3" t="s">
         <v>383</v>
       </c>
@@ -46900,7 +46873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="3" t="s">
         <v>383</v>
       </c>
@@ -46956,7 +46929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="3" t="s">
         <v>383</v>
       </c>
@@ -47012,7 +46985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="3" t="s">
         <v>383</v>
       </c>
@@ -47068,7 +47041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="3" t="s">
         <v>383</v>
       </c>
@@ -47124,7 +47097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="3" t="s">
         <v>383</v>
       </c>
@@ -47180,7 +47153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="3" t="s">
         <v>383</v>
       </c>
@@ -47236,7 +47209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="3" t="s">
         <v>383</v>
       </c>
@@ -47292,7 +47265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="3" t="s">
         <v>383</v>
       </c>
@@ -47348,7 +47321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="3" t="s">
         <v>383</v>
       </c>
@@ -47404,7 +47377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="3" t="s">
         <v>383</v>
       </c>
@@ -47460,7 +47433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="3" t="s">
         <v>383</v>
       </c>
@@ -47516,7 +47489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="3" t="s">
         <v>383</v>
       </c>
@@ -47572,7 +47545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="3" t="s">
         <v>383</v>
       </c>
@@ -47628,7 +47601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="3" t="s">
         <v>383</v>
       </c>
@@ -47684,7 +47657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="3" t="s">
         <v>383</v>
       </c>
@@ -47740,7 +47713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="3" t="s">
         <v>383</v>
       </c>
@@ -47796,7 +47769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="3" t="s">
         <v>383</v>
       </c>
@@ -47852,7 +47825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" s="3" t="s">
         <v>383</v>
       </c>
@@ -47908,7 +47881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="3" t="s">
         <v>383</v>
       </c>
@@ -47964,7 +47937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" s="3" t="s">
         <v>383</v>
       </c>
@@ -48020,7 +47993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" s="3" t="s">
         <v>383</v>
       </c>
@@ -48076,7 +48049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" s="3" t="s">
         <v>383</v>
       </c>
@@ -48132,7 +48105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" s="3" t="s">
         <v>383</v>
       </c>
@@ -48188,7 +48161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" s="3" t="s">
         <v>383</v>
       </c>
@@ -48244,7 +48217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
         <v>383</v>
       </c>
@@ -48300,7 +48273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" s="3" t="s">
         <v>383</v>
       </c>
@@ -48356,7 +48329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" s="3" t="s">
         <v>383</v>
       </c>
@@ -48412,7 +48385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" s="3" t="s">
         <v>383</v>
       </c>
@@ -48468,7 +48441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" s="3" t="s">
         <v>383</v>
       </c>
@@ -48524,7 +48497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" s="3" t="s">
         <v>383</v>
       </c>
@@ -48580,7 +48553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" s="3" t="s">
         <v>383</v>
       </c>
@@ -48636,7 +48609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" s="3" t="s">
         <v>383</v>
       </c>
@@ -48692,7 +48665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" s="3" t="s">
         <v>383</v>
       </c>
@@ -48748,7 +48721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" s="3" t="s">
         <v>383</v>
       </c>
@@ -48804,7 +48777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" s="3" t="s">
         <v>383</v>
       </c>
@@ -48860,7 +48833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" s="3" t="s">
         <v>383</v>
       </c>
@@ -48916,7 +48889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" s="3" t="s">
         <v>383</v>
       </c>
@@ -48972,7 +48945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" s="3" t="s">
         <v>383</v>
       </c>
@@ -49028,7 +49001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" s="3" t="s">
         <v>383</v>
       </c>
@@ -49084,7 +49057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" s="3" t="s">
         <v>383</v>
       </c>
@@ -49140,7 +49113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" s="3" t="s">
         <v>383</v>
       </c>
@@ -49196,7 +49169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" s="3" t="s">
         <v>383</v>
       </c>
@@ -49252,7 +49225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" s="3" t="s">
         <v>383</v>
       </c>
@@ -49308,7 +49281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" s="3" t="s">
         <v>383</v>
       </c>
@@ -49364,7 +49337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" s="3" t="s">
         <v>383</v>
       </c>
@@ -49420,7 +49393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" s="3" t="s">
         <v>383</v>
       </c>
@@ -49476,7 +49449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" s="3" t="s">
         <v>383</v>
       </c>
@@ -49532,7 +49505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" s="3" t="s">
         <v>383</v>
       </c>
@@ -49588,7 +49561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" s="3" t="s">
         <v>383</v>
       </c>
@@ -49644,7 +49617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" s="3" t="s">
         <v>383</v>
       </c>
@@ -49700,7 +49673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" s="3" t="s">
         <v>383</v>
       </c>
@@ -49756,7 +49729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" s="3" t="s">
         <v>383</v>
       </c>
@@ -49812,7 +49785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" s="3" t="s">
         <v>383</v>
       </c>
@@ -49868,7 +49841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" s="3" t="s">
         <v>383</v>
       </c>
@@ -49924,7 +49897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" s="3" t="s">
         <v>383</v>
       </c>
@@ -49980,7 +49953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" s="3" t="s">
         <v>383</v>
       </c>
@@ -50036,7 +50009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" s="3" t="s">
         <v>383</v>
       </c>
@@ -50092,7 +50065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" s="3" t="s">
         <v>383</v>
       </c>
@@ -50148,7 +50121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" s="3" t="s">
         <v>383</v>
       </c>
@@ -50204,7 +50177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" s="3" t="s">
         <v>383</v>
       </c>
@@ -50260,7 +50233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" s="3" t="s">
         <v>383</v>
       </c>
@@ -50316,7 +50289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" s="3" t="s">
         <v>383</v>
       </c>
@@ -50372,7 +50345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" s="3" t="s">
         <v>383</v>
       </c>
@@ -50428,7 +50401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" s="3" t="s">
         <v>383</v>
       </c>
@@ -50484,7 +50457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" s="3" t="s">
         <v>383</v>
       </c>
@@ -50540,7 +50513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" s="3" t="s">
         <v>383</v>
       </c>
@@ -50596,7 +50569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" s="3" t="s">
         <v>383</v>
       </c>
@@ -50652,7 +50625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" s="3" t="s">
         <v>383</v>
       </c>
@@ -50708,7 +50681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" s="3" t="s">
         <v>383</v>
       </c>
@@ -50764,7 +50737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" s="3" t="s">
         <v>383</v>
       </c>
@@ -50820,7 +50793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" s="3" t="s">
         <v>383</v>
       </c>
@@ -50876,7 +50849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" s="3" t="s">
         <v>383</v>
       </c>
@@ -50932,7 +50905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" s="3" t="s">
         <v>383</v>
       </c>
@@ -50988,7 +50961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" s="3" t="s">
         <v>383</v>
       </c>
@@ -51044,7 +51017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" s="3" t="s">
         <v>383</v>
       </c>
@@ -51100,7 +51073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" s="3" t="s">
         <v>383</v>
       </c>
@@ -51156,7 +51129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" s="3" t="s">
         <v>383</v>
       </c>
@@ -51212,7 +51185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" s="3" t="s">
         <v>383</v>
       </c>
@@ -51268,7 +51241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" s="3" t="s">
         <v>383</v>
       </c>
@@ -51324,7 +51297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" s="3" t="s">
         <v>383</v>
       </c>
@@ -51380,7 +51353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" s="3" t="s">
         <v>383</v>
       </c>
@@ -51436,7 +51409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" s="3" t="s">
         <v>383</v>
       </c>
@@ -51492,7 +51465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" s="3" t="s">
         <v>383</v>
       </c>
@@ -51548,7 +51521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" s="3" t="s">
         <v>383</v>
       </c>
@@ -51604,7 +51577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="880" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" s="3" t="s">
         <v>383</v>
       </c>
@@ -51660,7 +51633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="881" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" s="3" t="s">
         <v>383</v>
       </c>
@@ -51716,7 +51689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="882" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" s="3" t="s">
         <v>383</v>
       </c>
@@ -51772,7 +51745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="883" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" s="3" t="s">
         <v>383</v>
       </c>
@@ -51828,7 +51801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" s="3" t="s">
         <v>383</v>
       </c>
@@ -51884,7 +51857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="885" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" s="3" t="s">
         <v>383</v>
       </c>
@@ -51940,7 +51913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" s="3" t="s">
         <v>383</v>
       </c>
@@ -51996,7 +51969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="887" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" s="3" t="s">
         <v>383</v>
       </c>
@@ -52052,7 +52025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888" s="3" t="s">
         <v>383</v>
       </c>
@@ -52108,7 +52081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="889" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889" s="3" t="s">
         <v>383</v>
       </c>
@@ -52164,7 +52137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="890" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" s="3" t="s">
         <v>383</v>
       </c>
@@ -52220,7 +52193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" s="3" t="s">
         <v>383</v>
       </c>
@@ -52276,7 +52249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" s="3" t="s">
         <v>383</v>
       </c>
@@ -52332,7 +52305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="893" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893" s="3" t="s">
         <v>383</v>
       </c>
@@ -52388,7 +52361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="894" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" s="3" t="s">
         <v>383</v>
       </c>
@@ -52444,7 +52417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="895" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" s="3" t="s">
         <v>383</v>
       </c>
@@ -52500,7 +52473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="896" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896" s="3" t="s">
         <v>383</v>
       </c>
@@ -52556,7 +52529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897" s="3" t="s">
         <v>383</v>
       </c>
@@ -52612,7 +52585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="898" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898" s="3" t="s">
         <v>383</v>
       </c>
@@ -52668,7 +52641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="899" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899" s="3" t="s">
         <v>383</v>
       </c>
@@ -52724,7 +52697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="900" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900" s="3" t="s">
         <v>383</v>
       </c>
@@ -52780,7 +52753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901" s="3" t="s">
         <v>383</v>
       </c>
@@ -52836,7 +52809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="902" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902" s="3" t="s">
         <v>383</v>
       </c>
@@ -52892,7 +52865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="903" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903" s="3" t="s">
         <v>383</v>
       </c>
@@ -52948,7 +52921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904" s="3" t="s">
         <v>383</v>
       </c>
@@ -53004,7 +52977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905" s="3" t="s">
         <v>383</v>
       </c>
@@ -53060,7 +53033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="906" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906" s="3" t="s">
         <v>383</v>
       </c>
@@ -53116,7 +53089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="907" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907" s="3" t="s">
         <v>383</v>
       </c>
@@ -53172,7 +53145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="908" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908" s="3" t="s">
         <v>383</v>
       </c>
@@ -53228,7 +53201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="909" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909" s="3" t="s">
         <v>383</v>
       </c>
@@ -53284,7 +53257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="910" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910" s="3" t="s">
         <v>383</v>
       </c>
@@ -53340,7 +53313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="911" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911" s="3" t="s">
         <v>383</v>
       </c>
@@ -53396,7 +53369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="912" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912" s="3" t="s">
         <v>383</v>
       </c>
@@ -53452,7 +53425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913" s="3" t="s">
         <v>383</v>
       </c>
@@ -53508,7 +53481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914" s="3" t="s">
         <v>383</v>
       </c>
@@ -53564,7 +53537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915" s="3" t="s">
         <v>383</v>
       </c>
@@ -53620,7 +53593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916" s="3" t="s">
         <v>383</v>
       </c>
@@ -53676,7 +53649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917" s="3" t="s">
         <v>383</v>
       </c>
@@ -53732,7 +53705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918" s="3" t="s">
         <v>383</v>
       </c>
@@ -53788,7 +53761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919" s="3" t="s">
         <v>383</v>
       </c>
@@ -53844,7 +53817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920" s="3" t="s">
         <v>383</v>
       </c>
@@ -53900,7 +53873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921" s="3" t="s">
         <v>383</v>
       </c>
@@ -53956,7 +53929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922" s="3" t="s">
         <v>383</v>
       </c>
@@ -54012,7 +53985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923" s="3" t="s">
         <v>383</v>
       </c>
@@ -54068,7 +54041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924" s="3" t="s">
         <v>383</v>
       </c>
@@ -54124,7 +54097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925" s="3" t="s">
         <v>383</v>
       </c>
@@ -54180,7 +54153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926" s="3" t="s">
         <v>383</v>
       </c>
@@ -54236,7 +54209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927" s="3" t="s">
         <v>383</v>
       </c>
@@ -54292,7 +54265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928" s="3" t="s">
         <v>383</v>
       </c>
@@ -54348,7 +54321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929" s="3" t="s">
         <v>383</v>
       </c>
@@ -54404,7 +54377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="930" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930" s="3" t="s">
         <v>383</v>
       </c>
@@ -54460,7 +54433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="931" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931" s="3" t="s">
         <v>383</v>
       </c>
@@ -54516,7 +54489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="932" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932" s="3" t="s">
         <v>383</v>
       </c>
@@ -54572,7 +54545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="933" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933" s="3" t="s">
         <v>383</v>
       </c>
@@ -54628,7 +54601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="934" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934" s="3" t="s">
         <v>383</v>
       </c>
@@ -54684,7 +54657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="935" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935" s="3" t="s">
         <v>383</v>
       </c>
@@ -54740,7 +54713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936" s="3" t="s">
         <v>383</v>
       </c>
@@ -54796,7 +54769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="937" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937" s="3" t="s">
         <v>383</v>
       </c>
@@ -54852,7 +54825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="938" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938" s="3" t="s">
         <v>383</v>
       </c>
@@ -54908,7 +54881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="939" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939" s="3" t="s">
         <v>383</v>
       </c>
@@ -54964,7 +54937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="940" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940" s="3" t="s">
         <v>383</v>
       </c>
@@ -55020,7 +54993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="941" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941" s="3" t="s">
         <v>383</v>
       </c>
@@ -55076,7 +55049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="942" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942" s="3" t="s">
         <v>383</v>
       </c>
@@ -55132,7 +55105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="943" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943" s="3" t="s">
         <v>383</v>
       </c>
@@ -55188,7 +55161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="944" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944" s="3" t="s">
         <v>383</v>
       </c>
@@ -55244,7 +55217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="945" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945" s="3" t="s">
         <v>383</v>
       </c>
@@ -55300,7 +55273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="946" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946" s="3" t="s">
         <v>383</v>
       </c>
@@ -55356,7 +55329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="947" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947" s="3" t="s">
         <v>383</v>
       </c>
@@ -55412,7 +55385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="948" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948" s="3" t="s">
         <v>383</v>
       </c>
@@ -55468,7 +55441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949" s="3" t="s">
         <v>383</v>
       </c>
@@ -55524,7 +55497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950" s="3" t="s">
         <v>383</v>
       </c>
@@ -55580,7 +55553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="951" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951" s="3" t="s">
         <v>383</v>
       </c>
@@ -55636,7 +55609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="952" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952" s="3" t="s">
         <v>383</v>
       </c>
@@ -55692,7 +55665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="953" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953" s="3" t="s">
         <v>383</v>
       </c>
@@ -55748,7 +55721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="954" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954" s="3" t="s">
         <v>383</v>
       </c>
@@ -55804,7 +55777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="955" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955" s="3" t="s">
         <v>383</v>
       </c>
@@ -55860,7 +55833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="956" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956" s="3" t="s">
         <v>383</v>
       </c>
@@ -55916,7 +55889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="957" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957" s="3" t="s">
         <v>383</v>
       </c>
@@ -55972,7 +55945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="958" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958" s="3" t="s">
         <v>383</v>
       </c>
@@ -56028,7 +56001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="959" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959" s="3" t="s">
         <v>383</v>
       </c>
@@ -56084,7 +56057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="960" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A960" s="3" t="s">
         <v>383</v>
       </c>
@@ -56140,7 +56113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="961" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A961" s="3" t="s">
         <v>383</v>
       </c>
@@ -56196,7 +56169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="962" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A962" s="3" t="s">
         <v>383</v>
       </c>
@@ -56252,7 +56225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="963" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A963" s="3" t="s">
         <v>383</v>
       </c>
@@ -56308,7 +56281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="964" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A964" s="3" t="s">
         <v>383</v>
       </c>
@@ -56364,7 +56337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="965" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A965" s="3" t="s">
         <v>383</v>
       </c>
@@ -56420,7 +56393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="966" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A966" s="3" t="s">
         <v>383</v>
       </c>
@@ -56476,7 +56449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="967" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A967" s="3" t="s">
         <v>383</v>
       </c>
@@ -56532,7 +56505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="968" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A968" s="3" t="s">
         <v>383</v>
       </c>
@@ -56588,7 +56561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="969" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A969" s="3" t="s">
         <v>383</v>
       </c>
@@ -56644,7 +56617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="970" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A970" s="3" t="s">
         <v>383</v>
       </c>
@@ -56700,7 +56673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="971" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A971" s="3" t="s">
         <v>383</v>
       </c>
@@ -56756,7 +56729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="972" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A972" s="3" t="s">
         <v>383</v>
       </c>
@@ -56812,7 +56785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="973" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A973" s="3" t="s">
         <v>383</v>
       </c>
@@ -56868,7 +56841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="974" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A974" s="3" t="s">
         <v>383</v>
       </c>
@@ -56924,7 +56897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="975" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A975" s="3" t="s">
         <v>383</v>
       </c>
@@ -56980,7 +56953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="976" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A976" s="3" t="s">
         <v>383</v>
       </c>
@@ -57036,7 +57009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="977" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A977" s="3" t="s">
         <v>383</v>
       </c>
@@ -57092,7 +57065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="978" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A978" s="3" t="s">
         <v>383</v>
       </c>
@@ -57148,7 +57121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="979" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A979" s="3" t="s">
         <v>383</v>
       </c>
@@ -57204,7 +57177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="980" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A980" s="3" t="s">
         <v>383</v>
       </c>
@@ -57260,7 +57233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A981" s="3" t="s">
         <v>383</v>
       </c>
@@ -57316,7 +57289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="982" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A982" s="3" t="s">
         <v>383</v>
       </c>
@@ -57372,7 +57345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="983" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A983" s="3" t="s">
         <v>383</v>
       </c>
@@ -57428,7 +57401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="984" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A984" s="3" t="s">
         <v>383</v>
       </c>
@@ -57484,7 +57457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="985" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A985" s="3" t="s">
         <v>383</v>
       </c>
@@ -57540,7 +57513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="986" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A986" s="3" t="s">
         <v>383</v>
       </c>
@@ -57596,7 +57569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="987" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A987" s="3" t="s">
         <v>383</v>
       </c>
@@ -57652,7 +57625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="988" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A988" s="3" t="s">
         <v>383</v>
       </c>
@@ -57708,7 +57681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="989" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A989" s="3" t="s">
         <v>383</v>
       </c>
@@ -57764,7 +57737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="990" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A990" s="3" t="s">
         <v>383</v>
       </c>
@@ -57820,7 +57793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="991" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A991" s="3" t="s">
         <v>397</v>
       </c>
@@ -57874,7 +57847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="992" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A992" s="3" t="s">
         <v>397</v>
       </c>
@@ -57928,7 +57901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="993" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A993" s="3" t="s">
         <v>397</v>
       </c>
@@ -57982,7 +57955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="994" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A994" s="3" t="s">
         <v>397</v>
       </c>
@@ -58036,7 +58009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="995" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A995" s="3" t="s">
         <v>397</v>
       </c>
@@ -58090,7 +58063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="996" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A996" s="3" t="s">
         <v>397</v>
       </c>
@@ -58144,7 +58117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="997" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A997" s="3" t="s">
         <v>397</v>
       </c>
@@ -58198,7 +58171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="998" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A998" s="3" t="s">
         <v>397</v>
       </c>
@@ -58252,7 +58225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="999" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A999" s="3" t="s">
         <v>397</v>
       </c>
@@ -58306,7 +58279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1000" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="3" t="s">
         <v>397</v>
       </c>
@@ -58360,7 +58333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1001" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="3" t="s">
         <v>397</v>
       </c>
@@ -58414,7 +58387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1002" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="3" t="s">
         <v>397</v>
       </c>
@@ -58468,7 +58441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1003" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1003" s="3" t="s">
         <v>397</v>
       </c>
@@ -58522,7 +58495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1004" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1004" s="3" t="s">
         <v>397</v>
       </c>
@@ -58576,7 +58549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1005" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1005" s="3" t="s">
         <v>397</v>
       </c>
@@ -58630,7 +58603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1006" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1006" s="3" t="s">
         <v>397</v>
       </c>
@@ -58684,7 +58657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1007" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1007" s="3" t="s">
         <v>397</v>
       </c>
@@ -58738,7 +58711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1008" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1008" s="3" t="s">
         <v>397</v>
       </c>
@@ -58792,7 +58765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1009" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1009" s="3" t="s">
         <v>397</v>
       </c>
@@ -58846,7 +58819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1010" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1010" s="3" t="s">
         <v>397</v>
       </c>
@@ -58900,7 +58873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1011" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1011" s="3" t="s">
         <v>397</v>
       </c>
@@ -58954,7 +58927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1012" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1012" s="3" t="s">
         <v>397</v>
       </c>
@@ -59008,7 +58981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1013" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1013" s="3" t="s">
         <v>382</v>
       </c>
@@ -59052,7 +59025,7 @@
       <c r="Q1013" s="3"/>
       <c r="R1013" s="3"/>
     </row>
-    <row r="1014" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1014" s="3" t="s">
         <v>383</v>
       </c>
@@ -59096,7 +59069,7 @@
       <c r="Q1014" s="3"/>
       <c r="R1014" s="3"/>
     </row>
-    <row r="1015" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1015" s="3" t="s">
         <v>383</v>
       </c>
@@ -59140,7 +59113,7 @@
       <c r="Q1015" s="3"/>
       <c r="R1015" s="3"/>
     </row>
-    <row r="1016" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1016" s="3" t="s">
         <v>382</v>
       </c>
@@ -59186,7 +59159,7 @@
       <c r="Q1016" s="3"/>
       <c r="R1016" s="3"/>
     </row>
-    <row r="1017" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1017" s="3" t="s">
         <v>383</v>
       </c>
@@ -59230,7 +59203,7 @@
       <c r="Q1017" s="3"/>
       <c r="R1017" s="3"/>
     </row>
-    <row r="1018" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1018" s="3" t="s">
         <v>383</v>
       </c>
@@ -59275,6 +59248,18 @@
       <c r="R1018" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1018" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="East Midlands region"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Decile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A528:R1018">
     <sortCondition descending="1" ref="K528:K1018"/>
     <sortCondition ref="F528:F1018"/>
